--- a/xlsx/马克思_intext.xlsx
+++ b/xlsx/马克思_intext.xlsx
@@ -29,7 +29,7 @@
     <t>普鲁士王国</t>
   </si>
   <si>
-    <t>政策_政策_政治學_马克思</t>
+    <t>体育运动_体育运动_竞争_马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%B0%94</t>
@@ -28895,7 +28895,7 @@
         <v>1462</v>
       </c>
       <c r="G762" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
